--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -16,34 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
+    <t>中立</t>
+  </si>
+  <si>
+    <t>新文引發回文數</t>
+  </si>
+  <si>
+    <t>新文數</t>
+  </si>
+  <si>
+    <t>正面</t>
+  </si>
+  <si>
+    <t>正面程度</t>
+  </si>
+  <si>
+    <t>總回文數</t>
+  </si>
+  <si>
     <t>總文章數</t>
   </si>
   <si>
-    <t>新文數</t>
+    <t>舊文引發回文數</t>
   </si>
   <si>
     <t>舊文數</t>
   </si>
   <si>
-    <t>總回文數</t>
-  </si>
-  <si>
-    <t>新文引發回文數</t>
-  </si>
-  <si>
-    <t>舊文引發回文數</t>
-  </si>
-  <si>
-    <t>正面</t>
-  </si>
-  <si>
-    <t>中立</t>
-  </si>
-  <si>
     <t>負面</t>
-  </si>
-  <si>
-    <t>正面程度</t>
   </si>
   <si>
     <t>負面程度</t>
@@ -450,34 +450,34 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>77</v>
+      </c>
+      <c r="C2">
+        <v>78</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>44</v>
+      </c>
+      <c r="F2">
+        <v>1370.2</v>
+      </c>
+      <c r="G2">
+        <v>154</v>
+      </c>
+      <c r="H2">
         <v>169</v>
       </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
-      <c r="D2">
+      <c r="I2">
+        <v>76</v>
+      </c>
+      <c r="J2">
         <v>25</v>
       </c>
-      <c r="E2">
-        <v>154</v>
-      </c>
-      <c r="F2">
-        <v>78</v>
-      </c>
-      <c r="G2">
-        <v>76</v>
-      </c>
-      <c r="H2">
-        <v>44</v>
-      </c>
-      <c r="I2">
-        <v>77</v>
-      </c>
-      <c r="J2">
+      <c r="K2">
         <v>48</v>
-      </c>
-      <c r="K2">
-        <v>1370.2</v>
       </c>
       <c r="L2">
         <v>1352.6</v>

--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -16,34 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
+    <t>總文章數</t>
+  </si>
+  <si>
+    <t>新文數</t>
+  </si>
+  <si>
+    <t>舊文數</t>
+  </si>
+  <si>
+    <t>總回文數</t>
+  </si>
+  <si>
+    <t>新文引發回文數</t>
+  </si>
+  <si>
+    <t>舊文引發回文數</t>
+  </si>
+  <si>
+    <t>正面</t>
+  </si>
+  <si>
     <t>中立</t>
   </si>
   <si>
-    <t>新文引發回文數</t>
-  </si>
-  <si>
-    <t>新文數</t>
-  </si>
-  <si>
-    <t>正面</t>
+    <t>負面</t>
   </si>
   <si>
     <t>正面程度</t>
-  </si>
-  <si>
-    <t>總回文數</t>
-  </si>
-  <si>
-    <t>總文章數</t>
-  </si>
-  <si>
-    <t>舊文引發回文數</t>
-  </si>
-  <si>
-    <t>舊文數</t>
-  </si>
-  <si>
-    <t>負面</t>
   </si>
   <si>
     <t>負面程度</t>
@@ -450,34 +450,34 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>169</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>154</v>
+      </c>
+      <c r="F2">
+        <v>78</v>
+      </c>
+      <c r="G2">
+        <v>76</v>
+      </c>
+      <c r="H2">
+        <v>44</v>
+      </c>
+      <c r="I2">
         <v>77</v>
       </c>
-      <c r="C2">
-        <v>78</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>44</v>
-      </c>
-      <c r="F2">
+      <c r="J2">
+        <v>48</v>
+      </c>
+      <c r="K2">
         <v>1370.2</v>
-      </c>
-      <c r="G2">
-        <v>154</v>
-      </c>
-      <c r="H2">
-        <v>169</v>
-      </c>
-      <c r="I2">
-        <v>76</v>
-      </c>
-      <c r="J2">
-        <v>25</v>
-      </c>
-      <c r="K2">
-        <v>48</v>
       </c>
       <c r="L2">
         <v>1352.6</v>
